--- a/biology/Médecine/Ernest_Charles_Vigenaud/Ernest_Charles_Vigenaud.xlsx
+++ b/biology/Médecine/Ernest_Charles_Vigenaud/Ernest_Charles_Vigenaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ernest Charles Ange Norbert Vigenaud, né le 10 février 1846 à Naples[1], décédé le 1er juillet 1924 à Langres [2] (enterré le 10 juillet 1924 à Clermont-Ferrand)[3], est un médecin et un homme politique français. Il a été maire de Clermont-Ferrand.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ernest Charles Ange Norbert Vigenaud, né le 10 février 1846 à Naples, décédé le 1er juillet 1924 à Langres  (enterré le 10 juillet 1924 à Clermont-Ferrand), est un médecin et un homme politique français. Il a été maire de Clermont-Ferrand.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Médecin-major de 1re classe à l'hôpital militaire de Bourges, il rejoint en 1886 le 21e régiment d'infanterie[4]. En 1888, il est nommé au service militaire à l'hôpital mixte de Clermont-Ferrand, dont il devient médecin-chef[5],[6].
-Du 2 au 7 octobre 1905, il participe au Congrès international de la tuberculose, qui se tient à Paris, en qualité de vice-président, la présidence étant assurée par la docteur Paul Girod[7].
-Lors des élections municipales de 1912, la liste républicaine modérée sur laquelle il a été élu, emmenée par le maire Antoine Marie-Charles Fabre, compte le même nombre d'élus que la « liste proportionnelle républicaine et du commerce » — coalition de centre-gauche comprenant 8 socialistes sur 30 candidats — emmenée par Philippe Marcombes. Aussi Charles Fabre est-il contraint de renoncer à briguer la mairie, et c'est Ernest Charles Vigenaud, le doyen d'âge, qui lui succède à ce poste, « sous les lazzis de l'assistance »[8],[9].
-Médecin principal des armées en retraite, professeur à l'École de médecine, il meurt le 1er juillet 1924[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Médecin-major de 1re classe à l'hôpital militaire de Bourges, il rejoint en 1886 le 21e régiment d'infanterie. En 1888, il est nommé au service militaire à l'hôpital mixte de Clermont-Ferrand, dont il devient médecin-chef,.
+Du 2 au 7 octobre 1905, il participe au Congrès international de la tuberculose, qui se tient à Paris, en qualité de vice-président, la présidence étant assurée par la docteur Paul Girod.
+Lors des élections municipales de 1912, la liste républicaine modérée sur laquelle il a été élu, emmenée par le maire Antoine Marie-Charles Fabre, compte le même nombre d'élus que la « liste proportionnelle républicaine et du commerce » — coalition de centre-gauche comprenant 8 socialistes sur 30 candidats — emmenée par Philippe Marcombes. Aussi Charles Fabre est-il contraint de renoncer à briguer la mairie, et c'est Ernest Charles Vigenaud, le doyen d'âge, qui lui succède à ce poste, « sous les lazzis de l'assistance »,.
+Médecin principal des armées en retraite, professeur à l'École de médecine, il meurt le 1er juillet 1924.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Des affusions froides comme agent antifébrile (Candidat Ernest Vigenaud), Strasbourg, 23 août 1867 (thèse de médecine, Strasbourg, 1867).
 Éléments d'hygiène, Paris, C. Delagrave, 1873, 128 p.
@@ -582,7 +598,9 @@
           <t>Mandat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Maire de Clermont-Ferrand (1912-1919)</t>
         </is>
